--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165962.459700255</v>
+        <v>1072950.067408636</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>401174.258476059</v>
+        <v>401174.2584760593</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16527099.24834992</v>
+        <v>11503606.42357042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6012827.119034112</v>
+        <v>8332551.261316895</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.376898027766035</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.1776483877525573</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -752,43 +752,43 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.097658594934726</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="I3" t="n">
+      <c r="R3" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="J3" t="n">
+      <c r="S3" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -922,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.376898027766035</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1776483877525586</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -989,52 +989,52 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="H6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.516869431124803</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.516869431124803</v>
+      </c>
+      <c r="V6" t="n">
         <v>3.097658594934726</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.376898027766035</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3.376898027766035</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.097658594934726</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="J9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>3.516869431124803</v>
       </c>
       <c r="R9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.4006896726905</v>
+        <v>305.9368401386553</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>94.60196652890974</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U11" t="n">
         <v>250.0355428294531</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -1466,10 +1466,10 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H12" t="n">
-        <v>94.73428934605323</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>16.94786802678389</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.63995283957986</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.65185754899971</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>8.132332248944941</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.4006896726905</v>
+        <v>371.1173763113164</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>73.68828430734631</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.0355428294531</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>82.67294177351744</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -1700,13 +1700,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>68.58792738173854</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>75.74723767418689</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>49.09324089333306</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H17" t="n">
-        <v>87.85031520134856</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>51.42351466866813</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161.5653119208966</v>
+        <v>73.17505001650422</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -1934,16 +1934,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>177.3046992815431</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8.132332248944891</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.2008427698061</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.55287523770012</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4371022600589</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>208.162748077382</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>64.74265267683263</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>20.25995031184264</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.61244519333782</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.44301091817096</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>195.8537145219705</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>174.9400323004064</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>104.0122044829599</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>177.3046992815431</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>166.165065760309</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>6.443010918170939</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>6.443010918170734</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>76.66840943029943</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H26" t="n">
-        <v>132.3637229775712</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.3046992815431</v>
@@ -2690,16 +2690,16 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>30.24211225257094</v>
+        <v>217.0593595581742</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>16.15069457683444</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>6.44301091817096</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>264.5688831744556</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>264.8617010833295</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.883200319611707</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8708247664476</v>
+        <v>117.6408361570384</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>224.2008427698061</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.55287523770001</v>
+        <v>8.132332248944961</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>170.2713115465261</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>218.926768136766</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.0355428294531</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -3119,13 +3119,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>80.85642291773895</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1774694070239</v>
+        <v>195.6459904874837</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>8.132332248944849</v>
+        <v>151.5710677567955</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>91.70903417128531</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>194.7603440885288</v>
       </c>
       <c r="T35" t="n">
-        <v>94.27564967699281</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>37.3941217795455</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.3046992815431</v>
+        <v>77.59758323039104</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -3413,7 +3413,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>122.3165576320848</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>6.443010918170903</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>121.4327634372175</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>195.4540851325147</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>87.81103547321345</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.3046992815431</v>
+        <v>77.5975832303906</v>
       </c>
       <c r="T39" t="n">
         <v>211.8708247664476</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>8.132332248944849</v>
+        <v>51.64470282305634</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>262.9650754962863</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U41" t="n">
-        <v>26.57952882666692</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8442261590961208</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>177.3046992815431</v>
@@ -3875,7 +3875,7 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1774694070239</v>
+        <v>148.2380104825722</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V43" t="n">
-        <v>6.443010918170734</v>
+        <v>8.132332248944927</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>45.48247402612436</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>289.1602979490609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>112.7179135991726</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>117.1402516460728</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U45" t="n">
         <v>237.1774694070239</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="C2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="D2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="E2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="F2" t="n">
-        <v>3.692357663344566</v>
+        <v>10.65646961564463</v>
       </c>
       <c r="G2" t="n">
-        <v>3.692357663344566</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="H2" t="n">
-        <v>3.692357663344566</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="I2" t="n">
-        <v>3.692357663344566</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="J2" t="n">
-        <v>3.692357663344566</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="M2" t="n">
-        <v>3.763050291303539</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="N2" t="n">
-        <v>7.244751028117094</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="O2" t="n">
-        <v>7.244751028117094</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P2" t="n">
-        <v>7.244751028117094</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.244751028117094</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="R2" t="n">
-        <v>7.244751028117094</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="S2" t="n">
-        <v>7.244751028117094</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="T2" t="n">
-        <v>7.244751028117094</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="U2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="V2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="W2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="X2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.692357663344566</v>
+        <v>13.88803490858754</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="C3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="D3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="E3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="F3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="G3" t="n">
-        <v>10.93852964880757</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="H3" t="n">
-        <v>7.386136284035041</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="I3" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="J3" t="n">
         <v>0.2813495544899843</v>
@@ -4418,43 +4418,43 @@
         <v>3.45619840956866</v>
       </c>
       <c r="M3" t="n">
-        <v>3.622375514058549</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="N3" t="n">
-        <v>7.104076250872104</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="O3" t="n">
-        <v>10.58577698768566</v>
+        <v>13.90130062000932</v>
       </c>
       <c r="P3" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="R3" t="n">
-        <v>14.06747772449921</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="T3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="U3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="V3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="W3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="X3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
     </row>
     <row r="4">
@@ -4555,22 +4555,22 @@
         <v>7.244751028117094</v>
       </c>
       <c r="F5" t="n">
-        <v>7.244751028117094</v>
+        <v>4.013185735174188</v>
       </c>
       <c r="G5" t="n">
-        <v>7.244751028117094</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="H5" t="n">
-        <v>7.244751028117094</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="I5" t="n">
-        <v>7.244751028117094</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="J5" t="n">
-        <v>7.244751028117094</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="K5" t="n">
-        <v>3.833742919262513</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="L5" t="n">
         <v>0.2813495544899843</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G6" t="n">
-        <v>10.51508435972668</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H6" t="n">
-        <v>7.386136284035041</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I6" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J6" t="n">
         <v>0.2813495544899843</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.45619840956866</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M6" t="n">
-        <v>3.622375514058549</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N6" t="n">
-        <v>7.104076250872104</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O6" t="n">
-        <v>10.58577698768566</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P6" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="R6" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="S6" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="T6" t="n">
-        <v>14.06747772449921</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="U6" t="n">
-        <v>14.06747772449921</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="V6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="W6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="X6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="7">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G8" t="n">
         <v>0.2813495544899843</v>
@@ -4819,37 +4819,37 @@
         <v>7.244751028117094</v>
       </c>
       <c r="O8" t="n">
-        <v>3.692357663344566</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="C9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="D9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="E9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="F9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="G9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="H9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
@@ -4889,16 +4889,16 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.45619840956866</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="M9" t="n">
-        <v>3.622375514058549</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="N9" t="n">
-        <v>7.104076250872104</v>
+        <v>13.90130062000932</v>
       </c>
       <c r="O9" t="n">
-        <v>10.58577698768566</v>
+        <v>13.90130062000932</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4907,28 +4907,28 @@
         <v>10.51508435972668</v>
       </c>
       <c r="R9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="S9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="T9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="U9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="V9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="W9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="X9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
     </row>
     <row r="10">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>979.0044514047228</v>
+        <v>750.5644842949682</v>
       </c>
       <c r="C11" t="n">
-        <v>979.0044514047228</v>
+        <v>750.5644842949682</v>
       </c>
       <c r="D11" t="n">
-        <v>979.0044514047228</v>
+        <v>750.5644842949682</v>
       </c>
       <c r="E11" t="n">
-        <v>979.0044514047228</v>
+        <v>750.5644842949682</v>
       </c>
       <c r="F11" t="n">
-        <v>979.0044514047228</v>
+        <v>343.2925149616212</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3875931494798</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H11" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I11" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J11" t="n">
         <v>79.03615234277368</v>
@@ -5059,34 +5059,34 @@
         <v>1458.701379414585</v>
       </c>
       <c r="P11" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q11" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R11" t="n">
-        <v>1617.712643574322</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="S11" t="n">
-        <v>1617.712643574322</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="T11" t="n">
-        <v>1617.712643574322</v>
+        <v>1389.272676464567</v>
       </c>
       <c r="U11" t="n">
-        <v>1365.151489201137</v>
+        <v>1136.711522091382</v>
       </c>
       <c r="V11" t="n">
-        <v>1365.151489201137</v>
+        <v>1136.711522091382</v>
       </c>
       <c r="W11" t="n">
-        <v>1365.151489201137</v>
+        <v>1136.711522091382</v>
       </c>
       <c r="X11" t="n">
-        <v>1365.151489201137</v>
+        <v>1136.711522091382</v>
       </c>
       <c r="Y11" t="n">
-        <v>979.0044514047228</v>
+        <v>750.5644842949682</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>439.8545063111263</v>
+        <v>1069.121048873216</v>
       </c>
       <c r="C12" t="n">
-        <v>439.8545063111263</v>
+        <v>879.7087746061794</v>
       </c>
       <c r="D12" t="n">
-        <v>439.8545063111263</v>
+        <v>718.9286583672111</v>
       </c>
       <c r="E12" t="n">
-        <v>439.8545063111263</v>
+        <v>545.3654544886256</v>
       </c>
       <c r="F12" t="n">
-        <v>279.4267900283704</v>
+        <v>384.9377382058697</v>
       </c>
       <c r="G12" t="n">
-        <v>129.956605070104</v>
+        <v>235.4675532476033</v>
       </c>
       <c r="H12" t="n">
-        <v>34.26540371045431</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="I12" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J12" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K12" t="n">
         <v>215.1710339715871</v>
       </c>
       <c r="L12" t="n">
-        <v>497.8311447175246</v>
+        <v>303.4396872145412</v>
       </c>
       <c r="M12" t="n">
-        <v>872.4368259593773</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N12" t="n">
-        <v>1275.377094476588</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O12" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P12" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q12" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R12" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S12" t="n">
-        <v>1625.424923589264</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T12" t="n">
-        <v>1411.413989481741</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="U12" t="n">
-        <v>1171.840788060505</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="V12" t="n">
-        <v>928.7610699641386</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="W12" t="n">
-        <v>659.36250069443</v>
+        <v>1264.775960413064</v>
       </c>
       <c r="X12" t="n">
-        <v>439.8545063111263</v>
+        <v>1264.775960413064</v>
       </c>
       <c r="Y12" t="n">
-        <v>439.8545063111263</v>
+        <v>1247.656901800151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H13" t="n">
-        <v>256.6025402437133</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6713204266156</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J13" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K13" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L13" t="n">
         <v>105.1473006107386</v>
@@ -5232,19 +5232,19 @@
         <v>334.0166340210667</v>
       </c>
       <c r="U13" t="n">
-        <v>334.0166340210667</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="V13" t="n">
-        <v>334.0166340210667</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="W13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1386.27642073807</v>
+        <v>409.1314403885517</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.27642073807</v>
+        <v>409.1314403885517</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.27642073807</v>
+        <v>409.1314403885517</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.27642073807</v>
+        <v>409.1314403885517</v>
       </c>
       <c r="F14" t="n">
-        <v>979.0044514047228</v>
+        <v>409.1314403885517</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3875931494798</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H14" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I14" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J14" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K14" t="n">
-        <v>253.4009645124897</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L14" t="n">
-        <v>524.6989948305068</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M14" t="n">
-        <v>855.4462867779247</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N14" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O14" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P14" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q14" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R14" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S14" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T14" t="n">
-        <v>1638.837575111255</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U14" t="n">
-        <v>1386.27642073807</v>
+        <v>1460.70903114953</v>
       </c>
       <c r="V14" t="n">
-        <v>1386.27642073807</v>
+        <v>1136.588037604932</v>
       </c>
       <c r="W14" t="n">
-        <v>1386.27642073807</v>
+        <v>795.2784781849657</v>
       </c>
       <c r="X14" t="n">
-        <v>1386.27642073807</v>
+        <v>795.2784781849657</v>
       </c>
       <c r="Y14" t="n">
-        <v>1386.27642073807</v>
+        <v>409.1314403885517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>682.9342244074923</v>
+        <v>718.4487143778003</v>
       </c>
       <c r="C15" t="n">
-        <v>682.9342244074923</v>
+        <v>529.036440110764</v>
       </c>
       <c r="D15" t="n">
-        <v>599.4262024140403</v>
+        <v>368.2563238717958</v>
       </c>
       <c r="E15" t="n">
-        <v>425.8629985354548</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="F15" t="n">
-        <v>265.4352822526989</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G15" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I15" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J15" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K15" t="n">
-        <v>195.1830012904965</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="L15" t="n">
-        <v>477.843112036434</v>
+        <v>336.9135471374823</v>
       </c>
       <c r="M15" t="n">
-        <v>852.4487932782868</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N15" t="n">
-        <v>1255.389061795498</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O15" t="n">
-        <v>1568.253604357224</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P15" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q15" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R15" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S15" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="T15" t="n">
-        <v>1411.413989481741</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="U15" t="n">
-        <v>1171.840788060505</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="V15" t="n">
-        <v>1171.840788060505</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="W15" t="n">
-        <v>902.4422187907959</v>
+        <v>1342.133254752712</v>
       </c>
       <c r="X15" t="n">
-        <v>682.9342244074923</v>
+        <v>1122.625260369408</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.9342244074923</v>
+        <v>896.9845673047355</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="C16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="D16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="E16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="F16" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G16" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H16" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I16" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J16" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K16" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L16" t="n">
         <v>105.1473006107386</v>
@@ -5457,31 +5457,31 @@
         <v>334.0166340210667</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R16" t="n">
-        <v>83.85453592594226</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S16" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="U16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="V16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="W16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="X16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.26540371045431</v>
+        <v>110.7777649975118</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1327.123147726302</v>
+        <v>979.0044514047228</v>
       </c>
       <c r="C17" t="n">
-        <v>1327.123147726302</v>
+        <v>979.0044514047228</v>
       </c>
       <c r="D17" t="n">
-        <v>1327.123147726302</v>
+        <v>979.0044514047228</v>
       </c>
       <c r="E17" t="n">
-        <v>951.8919234216186</v>
+        <v>979.0044514047228</v>
       </c>
       <c r="F17" t="n">
-        <v>544.6199540882716</v>
+        <v>979.0044514047228</v>
       </c>
       <c r="G17" t="n">
-        <v>123.0030958330286</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="H17" t="n">
-        <v>34.26540371045431</v>
+        <v>221.7312569219368</v>
       </c>
       <c r="I17" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J17" t="n">
         <v>79.03615234277368</v>
       </c>
       <c r="K17" t="n">
-        <v>253.4009645124889</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L17" t="n">
-        <v>524.6989948305061</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M17" t="n">
-        <v>855.4462867779239</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N17" t="n">
         <v>1184.702979677704</v>
       </c>
       <c r="O17" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414584</v>
       </c>
       <c r="P17" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q17" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R17" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="S17" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="T17" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="U17" t="n">
-        <v>1713.270185522716</v>
+        <v>1355.068389059087</v>
       </c>
       <c r="V17" t="n">
-        <v>1713.270185522716</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="W17" t="n">
-        <v>1713.270185522716</v>
+        <v>1030.947395514489</v>
       </c>
       <c r="X17" t="n">
-        <v>1713.270185522716</v>
+        <v>979.0044514047228</v>
       </c>
       <c r="Y17" t="n">
-        <v>1327.123147726302</v>
+        <v>979.0044514047228</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1069.121048873216</v>
+        <v>558.0209980950444</v>
       </c>
       <c r="C18" t="n">
-        <v>879.7087746061795</v>
+        <v>368.6087238280081</v>
       </c>
       <c r="D18" t="n">
-        <v>718.9286583672113</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="E18" t="n">
-        <v>545.3654544886257</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="F18" t="n">
-        <v>384.9377382058698</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4675532476034</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I18" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J18" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="K18" t="n">
-        <v>195.1830012904965</v>
+        <v>111.1747061710116</v>
       </c>
       <c r="L18" t="n">
-        <v>477.843112036434</v>
+        <v>393.8348169169491</v>
       </c>
       <c r="M18" t="n">
-        <v>852.4487932782868</v>
+        <v>768.4404981588019</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.380766676014</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O18" t="n">
-        <v>1484.24530923774</v>
+        <v>1484.245309237739</v>
       </c>
       <c r="P18" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q18" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R18" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S18" t="n">
-        <v>1446.329267749321</v>
+        <v>1534.174529682772</v>
       </c>
       <c r="T18" t="n">
-        <v>1232.318333641798</v>
+        <v>1320.163595575249</v>
       </c>
       <c r="U18" t="n">
-        <v>1232.318333641798</v>
+        <v>1320.163595575249</v>
       </c>
       <c r="V18" t="n">
-        <v>1232.318333641798</v>
+        <v>1077.083877478883</v>
       </c>
       <c r="W18" t="n">
-        <v>1232.318333641798</v>
+        <v>1077.083877478883</v>
       </c>
       <c r="X18" t="n">
-        <v>1232.318333641798</v>
+        <v>857.5758830955797</v>
       </c>
       <c r="Y18" t="n">
-        <v>1232.318333641798</v>
+        <v>631.9351900309073</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959055</v>
       </c>
       <c r="C19" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959055</v>
       </c>
       <c r="D19" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959055</v>
       </c>
       <c r="E19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="F19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="G19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="H19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="I19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="J19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.26540371045429</v>
       </c>
       <c r="K19" t="n">
-        <v>42.07125390872751</v>
+        <v>42.07125390872748</v>
       </c>
       <c r="L19" t="n">
-        <v>105.1473006107386</v>
+        <v>105.1473006107385</v>
       </c>
       <c r="M19" t="n">
         <v>180.2480375930232</v>
       </c>
       <c r="N19" t="n">
-        <v>261.5791831678329</v>
+        <v>261.5791831678328</v>
       </c>
       <c r="O19" t="n">
-        <v>314.7040135792699</v>
+        <v>314.7040135792698</v>
       </c>
       <c r="P19" t="n">
-        <v>334.0166340210667</v>
+        <v>334.0166340210666</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.0166340210667</v>
+        <v>334.0166340210666</v>
       </c>
       <c r="R19" t="n">
-        <v>334.0166340210667</v>
+        <v>334.0166340210666</v>
       </c>
       <c r="S19" t="n">
-        <v>107.5511362737878</v>
+        <v>334.0166340210666</v>
       </c>
       <c r="T19" t="n">
-        <v>107.5511362737878</v>
+        <v>334.0166340210666</v>
       </c>
       <c r="U19" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959055</v>
       </c>
       <c r="V19" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959055</v>
       </c>
       <c r="W19" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959055</v>
       </c>
       <c r="X19" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959055</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.26540371045431</v>
+        <v>42.47988072959055</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.0083303581097</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C20" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D20" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E20" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F20" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G20" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H20" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I20" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J20" t="n">
-        <v>79.03615234277407</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K20" t="n">
-        <v>253.4009645124893</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L20" t="n">
-        <v>524.6989948305063</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M20" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N20" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O20" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P20" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q20" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R20" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S20" t="n">
-        <v>1516.542565231272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T20" t="n">
-        <v>1306.000037695859</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U20" t="n">
-        <v>1053.438883322674</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V20" t="n">
-        <v>729.3178897780763</v>
+        <v>1503.004783424349</v>
       </c>
       <c r="W20" t="n">
-        <v>388.0083303581097</v>
+        <v>1161.695224004383</v>
       </c>
       <c r="X20" t="n">
-        <v>388.0083303581097</v>
+        <v>798.2783408784171</v>
       </c>
       <c r="Y20" t="n">
-        <v>388.0083303581097</v>
+        <v>412.1313030820031</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1069.121048873216</v>
+        <v>99.66202257594182</v>
       </c>
       <c r="C21" t="n">
-        <v>879.7087746061795</v>
+        <v>99.66202257594182</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9286583672113</v>
+        <v>99.66202257594182</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3654544886257</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9377382058698</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4675532476034</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I21" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J21" t="n">
-        <v>54.25343639154485</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K21" t="n">
-        <v>215.1710339715871</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L21" t="n">
-        <v>497.8311447175246</v>
+        <v>477.843112036434</v>
       </c>
       <c r="M21" t="n">
-        <v>678.0453684563944</v>
+        <v>852.4487932782868</v>
       </c>
       <c r="N21" t="n">
-        <v>1080.985636973605</v>
+        <v>1255.389061795498</v>
       </c>
       <c r="O21" t="n">
-        <v>1393.850179535332</v>
+        <v>1568.253604357224</v>
       </c>
       <c r="P21" t="n">
         <v>1622.875055820307</v>
       </c>
       <c r="Q21" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R21" t="n">
-        <v>1713.270185522716</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S21" t="n">
-        <v>1713.270185522716</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T21" t="n">
-        <v>1713.270185522716</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="U21" t="n">
-        <v>1713.270185522716</v>
+        <v>992.7451322205616</v>
       </c>
       <c r="V21" t="n">
-        <v>1713.270185522716</v>
+        <v>992.7451322205616</v>
       </c>
       <c r="W21" t="n">
-        <v>1692.805589248127</v>
+        <v>723.3465629508529</v>
       </c>
       <c r="X21" t="n">
-        <v>1473.297594864823</v>
+        <v>503.8385685675493</v>
       </c>
       <c r="Y21" t="n">
-        <v>1247.656901800151</v>
+        <v>278.1978755028769</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J22" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K22" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L22" t="n">
         <v>105.1473006107386</v>
@@ -5937,25 +5937,25 @@
         <v>334.0166340210667</v>
       </c>
       <c r="S22" t="n">
-        <v>334.0166340210667</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="T22" t="n">
-        <v>334.0166340210667</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="U22" t="n">
-        <v>334.0166340210667</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="V22" t="n">
-        <v>334.0166340210667</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W22" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X22" t="n">
-        <v>334.0166340210667</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.6820150168562</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>585.8403652287869</v>
+        <v>795.2802996914567</v>
       </c>
       <c r="C23" t="n">
-        <v>232.0974385811315</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="D23" t="n">
-        <v>232.0974385811315</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="E23" t="n">
-        <v>232.0974385811315</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="F23" t="n">
-        <v>232.0974385811315</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G23" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H23" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I23" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J23" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K23" t="n">
-        <v>253.4009645124897</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L23" t="n">
-        <v>524.6989948305068</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M23" t="n">
-        <v>855.4462867779248</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N23" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O23" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P23" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q23" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R23" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S23" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T23" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U23" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V23" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="W23" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="X23" t="n">
-        <v>1349.85330239675</v>
+        <v>1349.853302396749</v>
       </c>
       <c r="Y23" t="n">
-        <v>963.7062646003358</v>
+        <v>1173.146199063005</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1024.71369672602</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="C24" t="n">
-        <v>835.3014224589838</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="D24" t="n">
-        <v>674.5213062200155</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="E24" t="n">
-        <v>500.9581023414299</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="F24" t="n">
-        <v>340.530386058674</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4675532476034</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I24" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J24" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K24" t="n">
         <v>215.1710339715871</v>
       </c>
       <c r="L24" t="n">
-        <v>497.8311447175246</v>
+        <v>303.4396872145412</v>
       </c>
       <c r="M24" t="n">
-        <v>872.4368259593773</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N24" t="n">
-        <v>1275.377094476588</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O24" t="n">
-        <v>1588.241637038315</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P24" t="n">
         <v>1622.875055820307</v>
       </c>
       <c r="Q24" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R24" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S24" t="n">
-        <v>1446.329267749321</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T24" t="n">
-        <v>1446.329267749321</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="U24" t="n">
-        <v>1446.329267749321</v>
+        <v>1152.320094807261</v>
       </c>
       <c r="V24" t="n">
-        <v>1203.249549652955</v>
+        <v>909.2403767108949</v>
       </c>
       <c r="W24" t="n">
-        <v>1203.249549652955</v>
+        <v>639.8418074411862</v>
       </c>
       <c r="X24" t="n">
-        <v>1203.249549652955</v>
+        <v>420.3338130578826</v>
       </c>
       <c r="Y24" t="n">
-        <v>1203.249549652955</v>
+        <v>194.6931199932102</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1413.518955212103</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="C25" t="n">
-        <v>1413.518955212103</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="D25" t="n">
-        <v>1413.518955212103</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="E25" t="n">
-        <v>1413.518955212103</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="F25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K25" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L25" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M25" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N25" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O25" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V25" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.027047048639</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="X25" t="n">
-        <v>1413.518955212103</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="Y25" t="n">
-        <v>1413.518955212103</v>
+        <v>40.7734955469906</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1713.270185522716</v>
+        <v>1244.212660306306</v>
       </c>
       <c r="C26" t="n">
-        <v>1713.270185522716</v>
+        <v>1244.212660306306</v>
       </c>
       <c r="D26" t="n">
-        <v>1372.086185884102</v>
+        <v>1166.769822497923</v>
       </c>
       <c r="E26" t="n">
-        <v>996.8549615794192</v>
+        <v>791.5385981932402</v>
       </c>
       <c r="F26" t="n">
-        <v>589.5829922460722</v>
+        <v>791.5385981932402</v>
       </c>
       <c r="G26" t="n">
-        <v>167.9661339908292</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H26" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I26" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J26" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K26" t="n">
-        <v>253.4009645124889</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L26" t="n">
-        <v>524.6989948305061</v>
+        <v>524.6989948305063</v>
       </c>
       <c r="M26" t="n">
-        <v>855.4462867779239</v>
+        <v>855.446286777924</v>
       </c>
       <c r="N26" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O26" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P26" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q26" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R26" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="S26" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="T26" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="U26" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="V26" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="W26" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="X26" t="n">
-        <v>1713.270185522716</v>
+        <v>1244.212660306306</v>
       </c>
       <c r="Y26" t="n">
-        <v>1713.270185522716</v>
+        <v>1244.212660306306</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>558.0209980950444</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="C27" t="n">
-        <v>368.6087238280081</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="D27" t="n">
         <v>207.8286075890398</v>
       </c>
       <c r="E27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K27" t="n">
-        <v>34.26540371045431</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L27" t="n">
-        <v>316.9255144563919</v>
+        <v>477.843112036434</v>
       </c>
       <c r="M27" t="n">
-        <v>691.5311956982446</v>
+        <v>852.4487932782868</v>
       </c>
       <c r="N27" t="n">
-        <v>1080.985636973605</v>
+        <v>1255.389061795498</v>
       </c>
       <c r="O27" t="n">
-        <v>1393.850179535332</v>
+        <v>1568.253604357224</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.875055820307</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q27" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R27" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S27" t="n">
-        <v>1446.329267749321</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T27" t="n">
-        <v>1232.318333641798</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="U27" t="n">
-        <v>992.745132220562</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="V27" t="n">
-        <v>962.197544086652</v>
+        <v>1100.91171723366</v>
       </c>
       <c r="W27" t="n">
-        <v>962.197544086652</v>
+        <v>831.5131479639509</v>
       </c>
       <c r="X27" t="n">
-        <v>962.197544086652</v>
+        <v>612.0051535806473</v>
       </c>
       <c r="Y27" t="n">
-        <v>736.5568510219796</v>
+        <v>386.3644605159749</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1713.270185522716</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C28" t="n">
-        <v>1713.270185522716</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D28" t="n">
-        <v>1696.956352616822</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E28" t="n">
-        <v>1553.84913927114</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F28" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G28" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H28" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I28" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J28" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K28" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L28" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M28" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N28" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O28" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T28" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U28" t="n">
-        <v>1713.270185522716</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="V28" t="n">
-        <v>1713.270185522716</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W28" t="n">
-        <v>1713.270185522716</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X28" t="n">
-        <v>1713.270185522716</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1713.270185522716</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1371.960626102749</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="C29" t="n">
-        <v>1018.217699455094</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="D29" t="n">
-        <v>677.0336998164803</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="E29" t="n">
-        <v>301.8024755117973</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="F29" t="n">
-        <v>34.26540371045431</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="G29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J29" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K29" t="n">
-        <v>253.4009645124895</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L29" t="n">
-        <v>524.6989948305064</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M29" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N29" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O29" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P29" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q29" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R29" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S29" t="n">
-        <v>1713.270185522716</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T29" t="n">
-        <v>1713.270185522716</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="U29" t="n">
-        <v>1713.270185522716</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="V29" t="n">
-        <v>1713.270185522716</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="W29" t="n">
-        <v>1371.960626102749</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="X29" t="n">
-        <v>1371.960626102749</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="Y29" t="n">
-        <v>1371.960626102749</v>
+        <v>1130.395527434858</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1069.121048873216</v>
+        <v>397.2408818560762</v>
       </c>
       <c r="C30" t="n">
-        <v>879.7087746061795</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="D30" t="n">
-        <v>718.9286583672113</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3654544886257</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9377382058698</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4675532476034</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I30" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J30" t="n">
-        <v>54.25343639154485</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K30" t="n">
-        <v>54.25343639154485</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L30" t="n">
-        <v>336.9135471374824</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M30" t="n">
-        <v>711.5192283793351</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N30" t="n">
-        <v>1080.985636973605</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O30" t="n">
-        <v>1393.850179535332</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.875055820307</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q30" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R30" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S30" t="n">
-        <v>1534.174529682773</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T30" t="n">
-        <v>1320.16359557525</v>
+        <v>1594.441058091363</v>
       </c>
       <c r="U30" t="n">
-        <v>1320.16359557525</v>
+        <v>1354.867856670127</v>
       </c>
       <c r="V30" t="n">
-        <v>1077.083877478884</v>
+        <v>1111.788138573761</v>
       </c>
       <c r="W30" t="n">
-        <v>1077.083877478884</v>
+        <v>842.3895693040522</v>
       </c>
       <c r="X30" t="n">
-        <v>1077.083877478884</v>
+        <v>622.8815749207486</v>
       </c>
       <c r="Y30" t="n">
-        <v>1077.083877478884</v>
+        <v>397.2408818560762</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K31" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L31" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M31" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N31" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O31" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P31" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q31" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R31" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S31" t="n">
-        <v>1486.804687775437</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T31" t="n">
-        <v>1413.518955212103</v>
+        <v>325.8021570019304</v>
       </c>
       <c r="U31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="V31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="W31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y31" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>864.4862648102768</v>
+        <v>922.6718514381205</v>
       </c>
       <c r="C32" t="n">
-        <v>864.4862648102768</v>
+        <v>750.6806276537507</v>
       </c>
       <c r="D32" t="n">
-        <v>864.4862648102768</v>
+        <v>409.4966280151373</v>
       </c>
       <c r="E32" t="n">
-        <v>864.4862648102768</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F32" t="n">
-        <v>864.4862648102768</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G32" t="n">
-        <v>442.8694065550338</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H32" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I32" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J32" t="n">
         <v>79.03615234277368</v>
       </c>
       <c r="K32" t="n">
-        <v>253.4009645124889</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L32" t="n">
-        <v>524.6989948305059</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M32" t="n">
         <v>855.4462867779238</v>
@@ -6718,34 +6718,34 @@
         <v>1458.701379414585</v>
       </c>
       <c r="P32" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q32" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R32" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S32" t="n">
-        <v>1713.270185522716</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T32" t="n">
-        <v>1494.913318555011</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="U32" t="n">
-        <v>1242.352164181826</v>
+        <v>1263.981410858087</v>
       </c>
       <c r="V32" t="n">
-        <v>1242.352164181826</v>
+        <v>1263.981410858087</v>
       </c>
       <c r="W32" t="n">
-        <v>1242.352164181826</v>
+        <v>922.6718514381205</v>
       </c>
       <c r="X32" t="n">
-        <v>1242.352164181826</v>
+        <v>922.6718514381205</v>
       </c>
       <c r="Y32" t="n">
-        <v>1242.352164181826</v>
+        <v>922.6718514381205</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>800.121868840163</v>
+        <v>558.0209980950444</v>
       </c>
       <c r="C33" t="n">
-        <v>610.7095945731267</v>
+        <v>368.6087238280081</v>
       </c>
       <c r="D33" t="n">
-        <v>449.9294783341584</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="E33" t="n">
-        <v>276.3662744555728</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F33" t="n">
-        <v>115.9385581728169</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G33" t="n">
-        <v>115.9385581728169</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H33" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I33" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J33" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K33" t="n">
-        <v>54.25343639154485</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L33" t="n">
-        <v>336.9135471374824</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M33" t="n">
-        <v>711.5192283793351</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N33" t="n">
-        <v>1114.459496896546</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O33" t="n">
-        <v>1427.324039458272</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P33" t="n">
-        <v>1656.348915743248</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q33" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R33" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S33" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T33" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U33" t="n">
-        <v>1473.696984101479</v>
+        <v>1515.647972909095</v>
       </c>
       <c r="V33" t="n">
-        <v>1473.696984101479</v>
+        <v>1272.568254812729</v>
       </c>
       <c r="W33" t="n">
-        <v>1204.298414831771</v>
+        <v>1003.16968554302</v>
       </c>
       <c r="X33" t="n">
-        <v>1204.298414831771</v>
+        <v>783.6616911597168</v>
       </c>
       <c r="Y33" t="n">
-        <v>978.6577217670981</v>
+        <v>558.0209980950444</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1413.518955212103</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="C34" t="n">
-        <v>1413.518955212103</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="D34" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E34" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F34" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G34" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H34" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I34" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J34" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K34" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L34" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M34" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N34" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O34" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S34" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.055708503579</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="U34" t="n">
-        <v>1413.518955212103</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="V34" t="n">
-        <v>1413.518955212103</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.518955212103</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="X34" t="n">
-        <v>1413.518955212103</v>
+        <v>180.9145453778389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1413.518955212103</v>
+        <v>180.9145453778389</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.2654037104543</v>
+        <v>534.1727610956046</v>
       </c>
       <c r="C35" t="n">
-        <v>34.2654037104543</v>
+        <v>534.1727610956046</v>
       </c>
       <c r="D35" t="n">
-        <v>34.2654037104543</v>
+        <v>534.1727610956046</v>
       </c>
       <c r="E35" t="n">
-        <v>34.2654037104543</v>
+        <v>534.1727610956046</v>
       </c>
       <c r="F35" t="n">
-        <v>34.2654037104543</v>
+        <v>126.9007917622577</v>
       </c>
       <c r="G35" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H35" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I35" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J35" t="n">
-        <v>79.03615234277376</v>
+        <v>79.03615234277413</v>
       </c>
       <c r="K35" t="n">
-        <v>253.400964512489</v>
+        <v>253.4009645124895</v>
       </c>
       <c r="L35" t="n">
-        <v>524.6989948305059</v>
+        <v>524.6989948305064</v>
       </c>
       <c r="M35" t="n">
-        <v>855.4462867779238</v>
+        <v>855.4462867779245</v>
       </c>
       <c r="N35" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O35" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P35" t="n">
-        <v>1648.405101797588</v>
+        <v>1648.405101797589</v>
       </c>
       <c r="Q35" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R35" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S35" t="n">
-        <v>1410.901923140829</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.67399417417</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="U35" t="n">
-        <v>1063.112839800985</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="V35" t="n">
-        <v>738.9918462563867</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="W35" t="n">
-        <v>397.6822868364201</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="X35" t="n">
-        <v>34.2654037104543</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.2654037104543</v>
+        <v>912.0386604671535</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>957.4227040963085</v>
+        <v>223.6776779774906</v>
       </c>
       <c r="C36" t="n">
-        <v>768.0104298292722</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D36" t="n">
-        <v>607.2303135903039</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E36" t="n">
-        <v>433.6671097117184</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F36" t="n">
-        <v>273.2393934289624</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4675532476033</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I36" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J36" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K36" t="n">
-        <v>111.1747061710121</v>
+        <v>111.1747061710125</v>
       </c>
       <c r="L36" t="n">
-        <v>393.8348169169496</v>
+        <v>393.83481691695</v>
       </c>
       <c r="M36" t="n">
-        <v>768.4404981588024</v>
+        <v>768.4404981588028</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.380766676013</v>
+        <v>1171.380766676014</v>
       </c>
       <c r="O36" t="n">
         <v>1484.24530923774</v>
       </c>
       <c r="P36" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="Q36" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R36" t="n">
-        <v>1625.424923589263</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S36" t="n">
-        <v>1446.329267749321</v>
+        <v>1634.8887883203</v>
       </c>
       <c r="T36" t="n">
-        <v>1446.329267749321</v>
+        <v>1420.877854212777</v>
       </c>
       <c r="U36" t="n">
-        <v>1446.329267749321</v>
+        <v>1181.304652791541</v>
       </c>
       <c r="V36" t="n">
-        <v>1446.329267749321</v>
+        <v>938.2249346951752</v>
       </c>
       <c r="W36" t="n">
-        <v>1176.930698479612</v>
+        <v>668.8263654254665</v>
       </c>
       <c r="X36" t="n">
-        <v>957.4227040963085</v>
+        <v>449.3183710421629</v>
       </c>
       <c r="Y36" t="n">
-        <v>957.4227040963085</v>
+        <v>223.6776779774906</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K37" t="n">
-        <v>1421.324805410376</v>
+        <v>42.07125390872751</v>
       </c>
       <c r="L37" t="n">
-        <v>1484.400852112387</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M37" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N37" t="n">
-        <v>1640.832734669481</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O37" t="n">
-        <v>1693.957565080918</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P37" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q37" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.07103362835</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S37" t="n">
-        <v>1413.518955212103</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T37" t="n">
-        <v>1413.518955212103</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U37" t="n">
-        <v>1413.518955212103</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="V37" t="n">
-        <v>1413.518955212103</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="X37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="Y37" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>985.8135883063346</v>
+        <v>1152.424933576027</v>
       </c>
       <c r="C38" t="n">
-        <v>985.8135883063346</v>
+        <v>1152.424933576027</v>
       </c>
       <c r="D38" t="n">
-        <v>985.8135883063346</v>
+        <v>1152.424933576027</v>
       </c>
       <c r="E38" t="n">
-        <v>985.8135883063346</v>
+        <v>777.1937092713442</v>
       </c>
       <c r="F38" t="n">
-        <v>578.5416189729876</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="G38" t="n">
-        <v>156.9247607177447</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H38" t="n">
         <v>34.2654037104543</v>
@@ -7174,19 +7174,19 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J38" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K38" t="n">
         <v>253.400964512489</v>
       </c>
       <c r="L38" t="n">
-        <v>524.698994830506</v>
+        <v>524.6989948305063</v>
       </c>
       <c r="M38" t="n">
-        <v>855.4462867779238</v>
+        <v>855.446286777924</v>
       </c>
       <c r="N38" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O38" t="n">
         <v>1458.701379414585</v>
@@ -7207,19 +7207,19 @@
         <v>1713.270185522715</v>
       </c>
       <c r="U38" t="n">
-        <v>1713.270185522715</v>
+        <v>1515.841816701993</v>
       </c>
       <c r="V38" t="n">
-        <v>1713.270185522715</v>
+        <v>1515.841816701993</v>
       </c>
       <c r="W38" t="n">
-        <v>1371.960626102749</v>
+        <v>1515.841816701993</v>
       </c>
       <c r="X38" t="n">
-        <v>1371.960626102749</v>
+        <v>1152.424933576027</v>
       </c>
       <c r="Y38" t="n">
-        <v>985.8135883063346</v>
+        <v>1152.424933576027</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.2654037104543</v>
+        <v>223.6776779774906</v>
       </c>
       <c r="C39" t="n">
         <v>34.2654037104543</v>
@@ -7253,25 +7253,25 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J39" t="n">
-        <v>34.2654037104543</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K39" t="n">
-        <v>111.1747061710121</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L39" t="n">
-        <v>393.8348169169496</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M39" t="n">
-        <v>768.4404981588024</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.380766676013</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O39" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P39" t="n">
-        <v>1713.270185522715</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q39" t="n">
         <v>1713.270185522715</v>
@@ -7280,25 +7280,25 @@
         <v>1713.270185522715</v>
       </c>
       <c r="S39" t="n">
-        <v>1534.174529682773</v>
+        <v>1634.8887883203</v>
       </c>
       <c r="T39" t="n">
-        <v>1320.16359557525</v>
+        <v>1420.877854212777</v>
       </c>
       <c r="U39" t="n">
-        <v>1080.590394154013</v>
+        <v>1181.304652791541</v>
       </c>
       <c r="V39" t="n">
-        <v>837.5106760576475</v>
+        <v>938.2249346951752</v>
       </c>
       <c r="W39" t="n">
-        <v>568.1121067879388</v>
+        <v>668.8263654254665</v>
       </c>
       <c r="X39" t="n">
-        <v>348.6041124046352</v>
+        <v>449.3183710421629</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.9634193399629</v>
+        <v>223.6776779774906</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K40" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L40" t="n">
-        <v>1484.400852112387</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M40" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N40" t="n">
-        <v>1640.832734669481</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O40" t="n">
-        <v>1693.957565080918</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P40" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q40" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R40" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S40" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.055708503579</v>
+        <v>281.850267533131</v>
       </c>
       <c r="U40" t="n">
-        <v>1413.518955212103</v>
+        <v>281.850267533131</v>
       </c>
       <c r="V40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="W40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>816.7685973484843</v>
+        <v>721.5035503457844</v>
       </c>
       <c r="C41" t="n">
-        <v>816.7685973484843</v>
+        <v>721.5035503457844</v>
       </c>
       <c r="D41" t="n">
-        <v>816.7685973484843</v>
+        <v>721.5035503457844</v>
       </c>
       <c r="E41" t="n">
-        <v>441.5373730438013</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="F41" t="n">
-        <v>34.2654037104543</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="G41" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H41" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I41" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J41" t="n">
-        <v>79.03615234277362</v>
+        <v>79.03615234277413</v>
       </c>
       <c r="K41" t="n">
-        <v>253.4009645124889</v>
+        <v>253.4009645124897</v>
       </c>
       <c r="L41" t="n">
-        <v>524.6989948305059</v>
+        <v>524.6989948305068</v>
       </c>
       <c r="M41" t="n">
-        <v>855.4462867779238</v>
+        <v>855.4462867779245</v>
       </c>
       <c r="N41" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O41" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P41" t="n">
-        <v>1648.405101797588</v>
+        <v>1648.405101797589</v>
       </c>
       <c r="Q41" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R41" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S41" t="n">
-        <v>1607.629543432272</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T41" t="n">
-        <v>1607.629543432272</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="U41" t="n">
-        <v>1580.781534516447</v>
+        <v>1045.624543890382</v>
       </c>
       <c r="V41" t="n">
-        <v>1580.781534516447</v>
+        <v>721.5035503457844</v>
       </c>
       <c r="W41" t="n">
-        <v>1580.781534516447</v>
+        <v>721.5035503457844</v>
       </c>
       <c r="X41" t="n">
-        <v>1580.781534516447</v>
+        <v>721.5035503457844</v>
       </c>
       <c r="Y41" t="n">
-        <v>1194.634496720033</v>
+        <v>721.5035503457844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C42" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D42" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E42" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F42" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G42" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H42" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I42" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J42" t="n">
-        <v>34.2654037104543</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K42" t="n">
-        <v>195.1830012904965</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L42" t="n">
-        <v>477.843112036434</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M42" t="n">
-        <v>852.4487932782868</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N42" t="n">
-        <v>1255.389061795498</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O42" t="n">
-        <v>1568.253604357224</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P42" t="n">
-        <v>1713.270185522715</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q42" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R42" t="n">
-        <v>1625.424923589263</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S42" t="n">
-        <v>1446.329267749321</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T42" t="n">
-        <v>1232.318333641798</v>
+        <v>1320.16359557525</v>
       </c>
       <c r="U42" t="n">
-        <v>992.7451322205616</v>
+        <v>1170.42823145144</v>
       </c>
       <c r="V42" t="n">
-        <v>749.6654141241956</v>
+        <v>927.348513355074</v>
       </c>
       <c r="W42" t="n">
-        <v>480.266844854487</v>
+        <v>657.9499440853654</v>
       </c>
       <c r="X42" t="n">
-        <v>260.7588504711833</v>
+        <v>438.4419497020617</v>
       </c>
       <c r="Y42" t="n">
-        <v>35.11815740651099</v>
+        <v>212.8012566373894</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K43" t="n">
-        <v>1421.324805410376</v>
+        <v>42.07125390872751</v>
       </c>
       <c r="L43" t="n">
-        <v>1484.400852112387</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M43" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N43" t="n">
-        <v>1640.832734669481</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O43" t="n">
-        <v>1693.957565080918</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T43" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.270185522715</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="V43" t="n">
-        <v>1706.762093686179</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="X43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="Y43" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>375.4494033490677</v>
+        <v>388.0083303581097</v>
       </c>
       <c r="C44" t="n">
-        <v>375.4494033490677</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D44" t="n">
         <v>34.2654037104543</v>
@@ -7648,13 +7648,13 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J44" t="n">
-        <v>79.03615234277362</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K44" t="n">
-        <v>253.4009645124889</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L44" t="n">
-        <v>524.6989948305059</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M44" t="n">
         <v>855.4462867779238</v>
@@ -7672,28 +7672,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R44" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S44" t="n">
-        <v>1607.629543432272</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T44" t="n">
-        <v>1607.629543432272</v>
+        <v>1470.600672275591</v>
       </c>
       <c r="U44" t="n">
-        <v>1355.068389059087</v>
+        <v>1470.600672275591</v>
       </c>
       <c r="V44" t="n">
-        <v>1030.947395514489</v>
+        <v>1470.600672275591</v>
       </c>
       <c r="W44" t="n">
-        <v>1030.947395514489</v>
+        <v>1129.291112855624</v>
       </c>
       <c r="X44" t="n">
-        <v>667.5305123885232</v>
+        <v>765.8742297296585</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.4494033490677</v>
+        <v>765.8742297296585</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>337.5341563604932</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="C45" t="n">
-        <v>148.1218820934569</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="D45" t="n">
-        <v>148.1218820934569</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="E45" t="n">
-        <v>148.1218820934569</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="F45" t="n">
-        <v>34.2654037104543</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="G45" t="n">
         <v>34.2654037104543</v>
@@ -7730,22 +7730,22 @@
         <v>34.2654037104543</v>
       </c>
       <c r="K45" t="n">
-        <v>34.2654037104543</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L45" t="n">
-        <v>316.9255144563918</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M45" t="n">
-        <v>691.5311956982446</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N45" t="n">
-        <v>1094.471464215455</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O45" t="n">
-        <v>1407.336006777182</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P45" t="n">
-        <v>1636.360883062157</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q45" t="n">
         <v>1713.270185522715</v>
@@ -7754,25 +7754,25 @@
         <v>1713.270185522715</v>
       </c>
       <c r="S45" t="n">
-        <v>1713.270185522715</v>
+        <v>1594.94669901153</v>
       </c>
       <c r="T45" t="n">
-        <v>1713.270185522715</v>
+        <v>1380.935764904008</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.696984101479</v>
+        <v>1141.362563482771</v>
       </c>
       <c r="V45" t="n">
-        <v>1230.617266005113</v>
+        <v>898.2828453864054</v>
       </c>
       <c r="W45" t="n">
-        <v>961.2186967354043</v>
+        <v>628.8842761166967</v>
       </c>
       <c r="X45" t="n">
-        <v>741.7107023521006</v>
+        <v>409.3762817333931</v>
       </c>
       <c r="Y45" t="n">
-        <v>516.0700092874283</v>
+        <v>183.7355886687207</v>
       </c>
     </row>
     <row r="46">
@@ -8066,7 +8066,7 @@
         <v>169.0363433314465</v>
       </c>
       <c r="M3" t="n">
-        <v>173.5713770459633</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N3" t="n">
         <v>163.7537581727915</v>
@@ -8075,7 +8075,7 @@
         <v>177.484287653347</v>
       </c>
       <c r="P3" t="n">
-        <v>166.9656464766077</v>
+        <v>163.6166327065838</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8297,13 +8297,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>168.166555548718</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L6" t="n">
-        <v>169.0363433314465</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M6" t="n">
-        <v>176.7782950813963</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N6" t="n">
         <v>163.7537581727915</v>
@@ -8312,7 +8312,7 @@
         <v>177.484287653347</v>
       </c>
       <c r="P6" t="n">
-        <v>166.9656464766077</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8537,19 +8537,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>173.5713770459633</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
         <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>177.484287653347</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>166.9656464766077</v>
+        <v>163.6166327065838</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8774,7 +8774,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>43.9495361778704</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8783,13 +8783,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
-        <v>150.1759871331646</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,16 +9005,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>8.830445725522452</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.77688131</v>
+        <v>267.9649015898573</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9023,10 +9023,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>121.507010321625</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,7 +9245,7 @@
         <v>61.51705889948337</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>86.51660982709551</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9254,7 +9254,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>225.7569948175682</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9479,7 +9479,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K21" t="n">
         <v>171.373473584151</v>
@@ -9488,7 +9488,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>105.4218737312293</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
         <v>310.6138585746227</v>
@@ -9497,7 +9497,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>30.19879850100995</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9722,7 +9722,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>43.9495361778704</v>
       </c>
       <c r="M24" t="n">
         <v>301.77688131</v>
@@ -9734,7 +9734,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>10.00886649990862</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9956,7 +9956,7 @@
         <v>61.51705889948337</v>
       </c>
       <c r="K27" t="n">
-        <v>8.830445725522452</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,16 +9965,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>296.9918108555821</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>121.5070103216245</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K30" t="n">
-        <v>8.830445725522452</v>
+        <v>86.51660982709596</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,7 +10202,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>276.8018788544805</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10430,7 +10430,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>8.830445725522452</v>
+        <v>66.32667782599441</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.318102732688</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,7 +10667,7 @@
         <v>61.51705889948337</v>
       </c>
       <c r="K36" t="n">
-        <v>86.51660982709596</v>
+        <v>86.51660982709642</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>86.51660982709598</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>310.6138585746227</v>
+        <v>114.2588509958516</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11150,16 +11150,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>310.6138585746227</v>
+        <v>114.2588509958521</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>121.5070103216245</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315037</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11378,7 +11378,7 @@
         <v>61.51705889948337</v>
       </c>
       <c r="K45" t="n">
-        <v>8.830445725522452</v>
+        <v>86.51660982709596</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>122.5080347337893</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -22546,37 +22546,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>419.2448920946117</v>
+        <v>15.72802266348691</v>
       </c>
       <c r="H2" t="n">
-        <v>351.1867109187684</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>256.6898085504863</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3013968910535</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.08649290099549</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,37 +22585,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6328276992101</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>220.4301160555486</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>236.785106778059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>224.246294399988</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>246.666209592082</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>145.8645598001571</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>124.320347491772</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>111.3389500165922</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.51804420162362</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,31 +22670,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>148.2309527983001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>195.63287444794</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>215.8480604164874</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2423862021824</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,76 +22704,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>168.883215127945</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>167.4464568944399</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>170.3394424699794</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>133.1381297789385</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>88.2262143767183</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>80.54391191246145</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>142.493864959141</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>211.6331360021768</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>238.6174795018098</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>224.541075671891</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6665082522452</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,37 +22783,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>419.2448920946117</v>
+        <v>15.72802266348691</v>
       </c>
       <c r="H5" t="n">
-        <v>351.1867109187684</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>256.6898085504863</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>111.3013968910535</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>55.08649290099549</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>13.47368980356777</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,37 +22822,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.6328276992101</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>220.4301160555486</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>236.785106778059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>224.246294399988</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1830790232068</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>145.445348963967</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>124.739558327962</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>111.3389500165922</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>69.51804420162362</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,31 +22907,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>148.2309527983001</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>195.63287444794</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>215.8480604164874</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2423862021824</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>168.883215127945</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>167.4464568944399</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>170.3394424699794</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>133.1381297789385</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>88.2262143767183</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>80.54391191246145</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>142.493864959141</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>211.6331360021768</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>238.6174795018098</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>224.541075671891</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6665082522452</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,37 +23020,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>419.2448920946117</v>
+        <v>15.72802266348691</v>
       </c>
       <c r="H8" t="n">
-        <v>351.1867109187684</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>111.3013968910535</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,37 +23059,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>30.44443104507403</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>70.20179389854206</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.6328276992101</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>220.4301160555486</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>224.246294399988</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>111.7581608527822</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.51804420162362</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,31 +23144,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.13081250099125</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>144.7140833671753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,76 +23178,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>168.883215127945</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>167.4464568944399</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>170.3394424699794</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>133.1381297789385</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>88.2262143767183</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.54391191246145</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.493864959141</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>211.6331360021768</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>238.6174795018098</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.541075671891</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6665082522452</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23269,16 +23269,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>111.4638495340352</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.982269140628759</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>194.7603440885288</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>23.57314204758595</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S12" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>206.4364181072417</v>
       </c>
     </row>
     <row r="13">
@@ -23433,13 +23433,13 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H13" t="n">
-        <v>83.45153758438552</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>282.1783748403904</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23506,16 +23506,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>46.2833133613741</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>194.7603440885288</v>
       </c>
       <c r="T14" t="n">
-        <v>142.4850139906815</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>76.49937330306111</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H15" t="n">
         <v>118.3074313936392</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>198.116656195273</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>63.17964454425976</v>
       </c>
       <c r="G16" t="n">
         <v>168.0559694104069</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S16" t="n">
-        <v>175.1076018764731</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0064803333194</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213857585613</v>
@@ -23740,19 +23740,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>244.449457663919</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>194.7603440885288</v>
@@ -23788,19 +23788,19 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>308.359199626038</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.18518247676911</v>
+        <v>103.5754443811615</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>237.1774694070239</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,7 +23898,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
-        <v>141.676141212225</v>
+        <v>133.5438089632801</v>
       </c>
       <c r="F19" t="n">
         <v>138.9268822184467</v>
@@ -23940,13 +23940,13 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T19" t="n">
         <v>221.0064803333194</v>
       </c>
       <c r="U19" t="n">
-        <v>216.0685105208612</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
@@ -24019,25 +24019,25 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T20" t="n">
-        <v>7.736196037968973</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>112.71703553177</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>107.084919162967</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>246.4446332651689</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.00447547163027</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
         <v>166.4571809719723</v>
@@ -24177,7 +24177,7 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S22" t="n">
-        <v>224.2008427698061</v>
+        <v>217.7578318516352</v>
       </c>
       <c r="T22" t="n">
         <v>221.0064803333194</v>
@@ -24189,13 +24189,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -24217,10 +24217,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>221.54697515072</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H23" t="n">
         <v>332.2997728652675</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>207.3455351180435</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>43.9632786257238</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1774694070239</v>
+        <v>71.01240364671494</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>132.4838713002757</v>
       </c>
       <c r="G25" t="n">
         <v>168.0559694104069</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>215.4764444900718</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
         <v>217.1412728141684</v>
@@ -24448,19 +24448,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>261.1037502119278</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>199.9360498876964</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>185.5911946793677</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>194.7603440885288</v>
@@ -24508,7 +24508,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24524,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V27" t="n">
-        <v>210.4068086628313</v>
+        <v>23.58956135722806</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>129.0319556738763</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.0559694104069</v>
@@ -24657,13 +24657,13 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213857585613</v>
+        <v>282.1783748403903</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>109.5183572033777</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>138.3375485566839</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>332.2997728652675</v>
@@ -24730,7 +24730,7 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.1732982980278</v>
@@ -24742,13 +24742,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>168.867294078054</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>94.22998860940918</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24888,13 +24888,13 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T31" t="n">
-        <v>148.4536050956194</v>
+        <v>212.8741480843744</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>179.9341858346527</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H32" t="n">
-        <v>113.3730047285015</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.9754831086837</v>
       </c>
       <c r="H33" t="n">
-        <v>37.45100847590022</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I33" t="n">
         <v>80.88269664813839</v>
@@ -25052,16 +25052,16 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>41.53147891954021</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25128,10 +25128,10 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8741480843745</v>
+        <v>69.43541257652382</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -25165,10 +25165,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4006896726905</v>
+        <v>325.6916555014052</v>
       </c>
       <c r="H35" t="n">
         <v>332.2997728652675</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>121.897648621035</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>110.5813613291382</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>99.70711605115208</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25359,22 +25359,22 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S37" t="n">
-        <v>101.8842851377214</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T37" t="n">
         <v>221.0064803333194</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213857585613</v>
+        <v>282.1783748403904</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25399,16 +25399,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H38" t="n">
-        <v>210.8670094280501</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>185.5911946793677</v>
@@ -25447,19 +25447,19 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0355428294531</v>
+        <v>54.58145769693837</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>88.93945892445228</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25520,7 +25520,7 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>99.70711605115252</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T40" t="n">
-        <v>212.8741480843745</v>
+        <v>169.361777510263</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>290.3107070893353</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25636,13 +25636,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>108.5138365653499</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>332.2997728652675</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>223.4560140027862</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
@@ -25696,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>175.9062682385696</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>88.93945892445171</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>238.6660042662792</v>
+        <v>236.976682935505</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1732982980278</v>
+        <v>170.6908242719035</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.12526946938897</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -25955,10 +25955,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>46.10552552075573</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.3074313936392</v>
@@ -25994,10 +25994,10 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S45" t="n">
-        <v>177.3046992815431</v>
+        <v>60.1644476354703</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>260518.3270995758</v>
+        <v>1064277.179064292</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>260518.3270995759</v>
+        <v>1064277.179064292</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>260518.3270995757</v>
+        <v>1064277.179064292</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606307.4140155826</v>
+        <v>606307.4140155825</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606307.4140155825</v>
+        <v>606307.4140155824</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606307.4140155826</v>
+        <v>606307.4140155823</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606307.4140155826</v>
+        <v>606307.4140155825</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606307.4140155828</v>
+        <v>606307.4140155826</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606307.4140155826</v>
+        <v>606307.4140155825</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606307.4140155824</v>
+        <v>606307.4140155825</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116967.1552228257</v>
+        <v>485356.6290399873</v>
       </c>
       <c r="C2" t="n">
-        <v>116967.1552228257</v>
+        <v>485356.6290399872</v>
       </c>
       <c r="D2" t="n">
-        <v>116967.1552228257</v>
+        <v>485356.6290399873</v>
       </c>
       <c r="E2" t="n">
-        <v>275317.8939814558</v>
+        <v>275317.8939814556</v>
       </c>
       <c r="F2" t="n">
         <v>275317.8939814555</v>
       </c>
       <c r="G2" t="n">
+        <v>275317.8939814555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>275317.8939814555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>275317.8939814554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>275317.8939814555</v>
+      </c>
+      <c r="K2" t="n">
         <v>275317.8939814556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>275317.8939814557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>275317.8939814556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>275317.8939814556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>275317.8939814557</v>
       </c>
       <c r="L2" t="n">
         <v>275317.8939814557</v>
       </c>
       <c r="M2" t="n">
-        <v>275317.8939814557</v>
+        <v>275317.8939814555</v>
       </c>
       <c r="N2" t="n">
-        <v>275317.8939814556</v>
+        <v>275317.8939814555</v>
       </c>
       <c r="O2" t="n">
-        <v>275317.8939814556</v>
+        <v>275317.8939814555</v>
       </c>
       <c r="P2" t="n">
-        <v>275317.8939814556</v>
+        <v>275317.8939814555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1178.583834366815</v>
+        <v>1178.583834366837</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>105862.0278985367</v>
+        <v>105862.0278985366</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5318.986641579896</v>
+        <v>387618.2278065301</v>
       </c>
       <c r="C4" t="n">
-        <v>5318.986641579896</v>
+        <v>387618.2278065301</v>
       </c>
       <c r="D4" t="n">
-        <v>5318.986641579896</v>
+        <v>387618.2278065301</v>
       </c>
       <c r="E4" t="n">
         <v>5935.088681661155</v>
@@ -26441,7 +26441,7 @@
         <v>5935.088681661155</v>
       </c>
       <c r="J4" t="n">
-        <v>5935.088681661156</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="K4" t="n">
         <v>5935.088681661155</v>
@@ -26450,16 +26450,16 @@
         <v>5935.088681661155</v>
       </c>
       <c r="M4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="N4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
       <c r="O4" t="n">
         <v>5935.088681661155</v>
       </c>
       <c r="P4" t="n">
-        <v>5935.088681661154</v>
+        <v>5935.088681661155</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>36042.35550341867</v>
       </c>
       <c r="G5" t="n">
-        <v>36042.35550341867</v>
+        <v>36042.35550341866</v>
       </c>
       <c r="H5" t="n">
         <v>36042.35550341867</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76628.15908546666</v>
+        <v>62687.09297257766</v>
       </c>
       <c r="C6" t="n">
-        <v>77806.74291983346</v>
+        <v>63865.67680694442</v>
       </c>
       <c r="D6" t="n">
-        <v>77806.74291983344</v>
+        <v>63865.67680694447</v>
       </c>
       <c r="E6" t="n">
-        <v>-262053.0791225917</v>
+        <v>-271631.5931176255</v>
       </c>
       <c r="F6" t="n">
-        <v>233340.4497963757</v>
+        <v>223761.935801342</v>
       </c>
       <c r="G6" t="n">
-        <v>233340.4497963758</v>
+        <v>223761.935801342</v>
       </c>
       <c r="H6" t="n">
-        <v>233340.4497963758</v>
+        <v>223761.935801342</v>
       </c>
       <c r="I6" t="n">
-        <v>233340.4497963758</v>
+        <v>223761.935801342</v>
       </c>
       <c r="J6" t="n">
-        <v>232420.2820109386</v>
+        <v>222841.7680159049</v>
       </c>
       <c r="K6" t="n">
-        <v>233340.4497963758</v>
+        <v>223761.9358013422</v>
       </c>
       <c r="L6" t="n">
-        <v>233340.4497963758</v>
+        <v>223761.9358013422</v>
       </c>
       <c r="M6" t="n">
-        <v>127478.4218978392</v>
+        <v>117899.9079028055</v>
       </c>
       <c r="N6" t="n">
-        <v>233340.4497963758</v>
+        <v>223761.935801342</v>
       </c>
       <c r="O6" t="n">
-        <v>233340.4497963758</v>
+        <v>223761.9358013421</v>
       </c>
       <c r="P6" t="n">
-        <v>233340.4497963758</v>
+        <v>223761.9358013421</v>
       </c>
     </row>
   </sheetData>
@@ -26798,37 +26798,37 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="F4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="G4" t="n">
+        <v>428.3175463806787</v>
+      </c>
+      <c r="H4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="I4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="J4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="K4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="L4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="M4" t="n">
         <v>428.3175463806789</v>
-      </c>
-      <c r="F4" t="n">
-        <v>428.3175463806789</v>
-      </c>
-      <c r="G4" t="n">
-        <v>428.3175463806789</v>
-      </c>
-      <c r="H4" t="n">
-        <v>428.3175463806789</v>
-      </c>
-      <c r="I4" t="n">
-        <v>428.3175463806789</v>
-      </c>
-      <c r="J4" t="n">
-        <v>428.3175463806789</v>
-      </c>
-      <c r="K4" t="n">
-        <v>428.3175463806789</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.3175463806789</v>
-      </c>
-      <c r="M4" t="n">
-        <v>428.3175463806788</v>
       </c>
       <c r="N4" t="n">
         <v>428.3175463806788</v>
       </c>
       <c r="O4" t="n">
-        <v>428.3175463806788</v>
+        <v>428.3175463806789</v>
       </c>
       <c r="P4" t="n">
         <v>428.3175463806788</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,37 +27378,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27417,37 +27417,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>133.4551793114576</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>69.9372550378137</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27502,31 +27502,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31.13081250099125</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="4">
@@ -27536,76 +27536,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="5">
@@ -27615,37 +27615,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>16.81291084694001</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27654,37 +27654,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27739,31 +27739,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.13081250099125</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>212.3311909853626</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>233.7255167710576</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>237.5512623204675</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="7">
@@ -27773,76 +27773,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="8">
@@ -27852,37 +27852,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>399.8223516122474</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27891,37 +27891,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="9">
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>145.445348963967</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>111.3389500165922</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27976,31 +27976,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>31.13081250099125</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>212.7504018215527</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -28010,76 +28010,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="11">
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N3" t="n">
         <v>3.516869431124803</v>
@@ -34795,7 +34795,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="P3" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3.206918035433006</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.1678556611008975</v>
       </c>
       <c r="M6" t="n">
-        <v>3.374773696533903</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N6" t="n">
         <v>3.516869431124803</v>
@@ -35032,7 +35032,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="P6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>162.5430278586285</v>
       </c>
       <c r="L12" t="n">
-        <v>285.5152633797348</v>
+        <v>89.16025580096372</v>
       </c>
       <c r="M12" t="n">
         <v>378.3895770119725</v>
@@ -35503,13 +35503,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O12" t="n">
-        <v>210.977994708234</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P12" t="n">
         <v>231.3382588737126</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K15" t="n">
-        <v>162.5430278586285</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>285.5152633797348</v>
       </c>
       <c r="M15" t="n">
-        <v>378.3895770119725</v>
+        <v>344.5775972918299</v>
       </c>
       <c r="N15" t="n">
         <v>407.010372239607</v>
@@ -35743,10 +35743,10 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P15" t="n">
-        <v>146.4813951166583</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>162.5430278586285</v>
+        <v>77.68616410157306</v>
       </c>
       <c r="L18" t="n">
         <v>285.5152633797348</v>
@@ -35974,7 +35974,7 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N18" t="n">
-        <v>322.1535084825525</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O18" t="n">
         <v>316.0247904663902</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>162.5430278586285</v>
@@ -36208,7 +36208,7 @@
         <v>285.5152633797348</v>
       </c>
       <c r="M21" t="n">
-        <v>182.0345694332018</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N21" t="n">
         <v>407.010372239607</v>
@@ -36217,7 +36217,7 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P21" t="n">
-        <v>231.3382588737126</v>
+        <v>55.17318329604328</v>
       </c>
       <c r="Q21" t="n">
         <v>91.30821182061453</v>
@@ -36442,7 +36442,7 @@
         <v>162.5430278586285</v>
       </c>
       <c r="L24" t="n">
-        <v>285.5152633797348</v>
+        <v>89.16025580096372</v>
       </c>
       <c r="M24" t="n">
         <v>378.3895770119725</v>
@@ -36454,7 +36454,7 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P24" t="n">
-        <v>34.98325129494195</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q24" t="n">
         <v>91.30821182061453</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L27" t="n">
         <v>285.5152633797348</v>
@@ -36685,16 +36685,16 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N27" t="n">
-        <v>393.3883245205664</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O27" t="n">
         <v>316.0247904663902</v>
       </c>
       <c r="P27" t="n">
-        <v>231.3382588737126</v>
+        <v>146.4813951166579</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.30821182061453</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>77.68616410157351</v>
       </c>
       <c r="L30" t="n">
         <v>285.5152633797348</v>
@@ -36922,7 +36922,7 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N30" t="n">
-        <v>373.1983925194648</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O30" t="n">
         <v>316.0247904663902</v>
@@ -36931,7 +36931,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.30821182061453</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>20.18993200110155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>57.49623210047196</v>
       </c>
       <c r="L33" t="n">
         <v>285.5152633797348</v>
@@ -37168,7 +37168,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.49623210047232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>77.68616410157351</v>
+        <v>77.68616410157397</v>
       </c>
       <c r="L36" t="n">
         <v>285.5152633797348</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K39" t="n">
-        <v>77.68616410157351</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L39" t="n">
         <v>285.5152633797348</v>
@@ -37633,7 +37633,7 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N39" t="n">
-        <v>407.010372239607</v>
+        <v>210.6553646608359</v>
       </c>
       <c r="O39" t="n">
         <v>316.0247904663902</v>
@@ -37642,7 +37642,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K42" t="n">
         <v>162.5430278586285</v>
@@ -37870,16 +37870,16 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N42" t="n">
-        <v>407.010372239607</v>
+        <v>210.6553646608364</v>
       </c>
       <c r="O42" t="n">
         <v>316.0247904663902</v>
       </c>
       <c r="P42" t="n">
-        <v>146.4813951166579</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.22297841648416</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K44" t="n">
         <v>176.1260728987023</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>77.68616410157351</v>
       </c>
       <c r="L45" t="n">
         <v>285.5152633797348</v>
@@ -38116,7 +38116,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.68616410157365</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
